--- a/ER図.xlsx
+++ b/ER図.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -187,6 +187,39 @@
   </si>
   <si>
     <t>Tax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部キー</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Null禁止</t>
+    <rPh sb="4" eb="6">
+      <t>キンシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -250,7 +283,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,12 +320,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -591,7 +618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,6 +645,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -690,6 +726,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -699,37 +762,22 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -741,16 +789,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -780,26 +818,71 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>176695</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>27609</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68094</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+        <xdr:cNvPr id="30" name="直線コネクタ 29"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3274391" y="822739"/>
-          <a:ext cx="397566" cy="0"/>
+          <a:off x="3268494" y="2882630"/>
+          <a:ext cx="363166" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>178340</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>64852</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3653060" y="2474595"/>
+          <a:ext cx="4540" cy="394417"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -826,25 +909,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>29838</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>64265</xdr:rowOff>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>44622</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>58352</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61609</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+        <xdr:cNvPr id="36" name="直線コネクタ 35"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3702127" y="828560"/>
-          <a:ext cx="14784" cy="1759081"/>
+          <a:off x="3659505" y="2474595"/>
+          <a:ext cx="363855" cy="2554"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -870,26 +953,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>41190</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>2721</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>54919</xdr:rowOff>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>179614</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>61785</xdr:rowOff>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線コネクタ 18"/>
+        <xdr:cNvPr id="38" name="直線コネクタ 37"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3679568" y="2622378"/>
-          <a:ext cx="322648" cy="6866"/>
+        <a:xfrm flipH="1">
+          <a:off x="3831771" y="2631621"/>
+          <a:ext cx="176893" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -915,79 +998,111 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>148817</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>664</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>74474</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>64771</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線コネクタ 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3845923" y="849630"/>
+          <a:ext cx="0" cy="1760221"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>2721</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>93590</xdr:rowOff>
+      <xdr:rowOff>73479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>73479</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線コネクタ 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3294788" y="642921"/>
-          <a:ext cx="295772" cy="223555"/>
+          <a:off x="3843201" y="843099"/>
+          <a:ext cx="178254" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
+        <a:ln w="9525"/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>162278</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14112</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="293915" cy="264047"/>
+    <xdr:ext cx="236668" cy="217560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3853542" y="2416629"/>
-          <a:ext cx="293915" cy="264047"/>
+          <a:off x="3831167" y="642056"/>
+          <a:ext cx="236668" cy="217560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1009,7 +1124,164 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7057</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>49388</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="236668" cy="217560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3859390" y="2547055"/>
+          <a:ext cx="236668" cy="217560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7055</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7055</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="236668" cy="217560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="テキスト ボックス 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3859388" y="2250722"/>
+          <a:ext cx="236668" cy="217560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>112889</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>14111</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="287258" cy="264047"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3231445" y="2638778"/>
+          <a:ext cx="287258" cy="264047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1018,55 +1290,12 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>＊</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123986</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>69743</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>180813</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>69743</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線コネクタ 27"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3425125" y="2735451"/>
-          <a:ext cx="607017" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1370,8 +1599,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N7" zoomScale="117" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23:AA23"/>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -1380,130 +1609,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="5" customFormat="1" ht="10.199999999999999" thickTop="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="27" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="20" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="20" t="s">
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="33"/>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="34"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="37"/>
     </row>
     <row r="2" spans="1:55" s="5" customFormat="1" ht="10.199999999999999" thickBot="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="35" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="35" t="s">
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
+      <c r="BB2" s="40"/>
+      <c r="BC2" s="41"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:55">
@@ -1609,33 +1838,36 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
+      <c r="E6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="47" t="s">
+      <c r="N6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="49"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="51"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
+      <c r="W6" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="54"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
@@ -1654,37 +1886,40 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
+      <c r="E7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="46" t="s">
+      <c r="N7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="43" t="s">
+      <c r="O7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="45"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="48"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
+      <c r="W7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="48"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
@@ -1703,37 +1938,40 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
+      <c r="E8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="46" t="s">
+      <c r="N8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="43" t="s">
+      <c r="O8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="45"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="48"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
+      <c r="W8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="48"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
@@ -1752,37 +1990,32 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="46" t="s">
+      <c r="N9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="43" t="s">
+      <c r="O9" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="45"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="48"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
+      <c r="W9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="X9" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="48"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
@@ -1801,37 +2034,32 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="46" t="s">
+      <c r="N10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="43" t="s">
+      <c r="O10" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="45"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="48"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
+      <c r="W10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="X10" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="48"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="4"/>
@@ -1850,35 +2078,30 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="43" t="s">
+      <c r="N11" s="16"/>
+      <c r="O11" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="45"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="48"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
+      <c r="W11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="X11" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="48"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="4"/>
@@ -1897,35 +2120,30 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="43" t="s">
+      <c r="N12" s="16"/>
+      <c r="O12" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="45"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="48"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
+      <c r="W12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="X12" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="48"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="4"/>
@@ -2199,24 +2417,24 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="54" t="s">
+      <c r="N19" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="63"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="57" t="s">
+      <c r="W19" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="60"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
@@ -2244,26 +2462,28 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="53" t="s">
+      <c r="N20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="50" t="s">
+      <c r="O20" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="52"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="45"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="50" t="s">
+      <c r="W20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="X20" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="52"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="45"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2291,26 +2511,28 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="53" t="s">
+      <c r="N21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="50" t="s">
+      <c r="O21" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="52"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="45"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="50" t="s">
+      <c r="W21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="X21" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="52"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="45"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2338,26 +2560,26 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="53" t="s">
+      <c r="N22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="50" t="s">
+      <c r="O22" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="52"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="45"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="50" t="s">
+      <c r="W22" s="17"/>
+      <c r="X22" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="52"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="45"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -2385,26 +2607,26 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="53" t="s">
+      <c r="N23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="50" t="s">
+      <c r="O23" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="52"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="45"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="50" t="s">
+      <c r="W23" s="17"/>
+      <c r="X23" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="52"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="45"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -2432,22 +2654,24 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="50" t="s">
+      <c r="N24" s="16"/>
+      <c r="O24" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="52"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="45"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="45"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="48"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
@@ -3412,7 +3636,10 @@
       <c r="BC54" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="40">
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
     <mergeCell ref="X24:AA24"/>
     <mergeCell ref="O11:R11"/>
     <mergeCell ref="O12:R12"/>
@@ -3427,18 +3654,18 @@
     <mergeCell ref="O21:R21"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="O23:R23"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="X12:AA12"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="O7:R7"/>
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="O9:R9"/>
     <mergeCell ref="O10:R10"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AO2"/>

--- a/ER図.xlsx
+++ b/ER図.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -220,6 +220,10 @@
     <rPh sb="4" eb="6">
       <t>キンシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -654,6 +658,90 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -704,90 +792,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1296,6 +1300,246 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114116</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>72980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>182451</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>73623</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2138754" y="2605618"/>
+          <a:ext cx="252393" cy="643"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2125980" y="830580"/>
+          <a:ext cx="0" cy="1786890"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>112395</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="832485"/>
+          <a:ext cx="251460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14869</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22301</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="236668" cy="217560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200508" y="665355"/>
+          <a:ext cx="236668" cy="217560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>170986</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33454</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="287258" cy="264047"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2174488" y="2460703"/>
+          <a:ext cx="287258" cy="264047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>＊</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1599,8 +1843,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="AN9" sqref="AN9"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="148" zoomScaleNormal="355" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -1609,130 +1853,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="5" customFormat="1" ht="10.199999999999999" thickTop="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="30" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="23" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="23" t="s">
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="37"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="40"/>
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="41"/>
     </row>
     <row r="2" spans="1:55" s="5" customFormat="1" ht="10.199999999999999" thickBot="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="38" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="38" t="s">
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="40"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="41"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="45"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:55">
@@ -1841,33 +2085,33 @@
       <c r="E6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="49" t="s">
+      <c r="N6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="36"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="52" t="s">
+      <c r="W6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="54"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="39"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
@@ -1889,11 +2133,11 @@
       <c r="E7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="57"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1901,12 +2145,12 @@
       <c r="N7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="46" t="s">
+      <c r="O7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="48"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="24"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -1914,12 +2158,12 @@
       <c r="W7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="46" t="s">
+      <c r="X7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="48"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="24"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
@@ -1941,11 +2185,11 @@
       <c r="E8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="57"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1953,12 +2197,12 @@
       <c r="N8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="46" t="s">
+      <c r="O8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="48"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="24"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -1966,12 +2210,12 @@
       <c r="W8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="46" t="s">
+      <c r="X8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="48"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="24"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
@@ -1997,12 +2241,12 @@
       <c r="N9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="46" t="s">
+      <c r="O9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="48"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="24"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -2010,12 +2254,12 @@
       <c r="W9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="46" t="s">
+      <c r="X9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="48"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="24"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
@@ -2041,12 +2285,12 @@
       <c r="N10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="46" t="s">
+      <c r="O10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="48"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -2054,12 +2298,12 @@
       <c r="W10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="X10" s="46" t="s">
+      <c r="X10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="48"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="24"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="4"/>
@@ -2083,12 +2327,12 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="16"/>
-      <c r="O11" s="46" t="s">
+      <c r="O11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="48"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -2096,12 +2340,12 @@
       <c r="W11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="X11" s="46" t="s">
+      <c r="X11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="48"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="24"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="4"/>
@@ -2125,12 +2369,12 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="46" t="s">
+      <c r="O12" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="48"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="24"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -2138,12 +2382,12 @@
       <c r="W12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="X12" s="46" t="s">
+      <c r="X12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="48"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="24"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="4"/>
@@ -2417,24 +2661,24 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="61" t="s">
+      <c r="N19" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="63"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="33"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="58" t="s">
+      <c r="W19" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="60"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="30"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
@@ -2465,12 +2709,12 @@
       <c r="N20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="43" t="s">
+      <c r="O20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="45"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="27"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
@@ -2478,12 +2722,12 @@
       <c r="W20" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="X20" s="43" t="s">
+      <c r="X20" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="45"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="27"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2512,14 +2756,14 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="O21" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="45"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="27"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
@@ -2527,12 +2771,12 @@
       <c r="W21" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="X21" s="43" t="s">
+      <c r="X21" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="45"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="27"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2563,23 +2807,23 @@
       <c r="N22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="43" t="s">
+      <c r="O22" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="45"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="27"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="17"/>
-      <c r="X22" s="43" t="s">
+      <c r="X22" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="45"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="27"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -2610,23 +2854,23 @@
       <c r="N23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="43" t="s">
+      <c r="O23" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="45"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="27"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="17"/>
-      <c r="X23" s="43" t="s">
+      <c r="X23" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="45"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="27"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -2655,23 +2899,23 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="16"/>
-      <c r="O24" s="43" t="s">
+      <c r="O24" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="45"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="27"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="16"/>
-      <c r="X24" s="46" t="s">
+      <c r="X24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="48"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="24"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
@@ -3637,6 +3881,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="R1:AA2"/>
+    <mergeCell ref="N1:Q2"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:BC1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AO2"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT2:BC2"/>
+    <mergeCell ref="AF1:AO1"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
@@ -3653,30 +3921,6 @@
     <mergeCell ref="O20:R20"/>
     <mergeCell ref="O21:R21"/>
     <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AT1:BC1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AO2"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT2:BC2"/>
-    <mergeCell ref="AF1:AO1"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="R1:AA2"/>
-    <mergeCell ref="N1:Q2"/>
-    <mergeCell ref="AP1:AS1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions gridLinesSet="0"/>

--- a/ER図.xlsx
+++ b/ER図.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -82,14 +82,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Update</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Insert</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -122,10 +114,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Menu_in</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Order_table</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -154,10 +142,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Menu_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -174,19 +158,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Order_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>User_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Pay</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tax</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -224,6 +200,34 @@
   </si>
   <si>
     <t>FK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Payment_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Payment_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NN</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -959,13 +963,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>2721</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>179614</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -975,7 +979,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3831771" y="2631621"/>
+          <a:off x="3789454" y="2842646"/>
           <a:ext cx="176893" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1010,8 +1014,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>5443</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>64771</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67339</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1020,8 +1024,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3845923" y="849630"/>
-          <a:ext cx="0" cy="1760221"/>
+          <a:off x="3875694" y="856187"/>
+          <a:ext cx="0" cy="2021692"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1145,9 +1149,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>49388</xdr:rowOff>
+      <xdr:colOff>24507</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66837</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="236668" cy="217560"/>
     <xdr:sp macro="" textlink="">
@@ -1157,7 +1161,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3859390" y="2547055"/>
+          <a:off x="3811240" y="2841448"/>
           <a:ext cx="236668" cy="217560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1843,8 +1847,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="148" zoomScaleNormal="355" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="134" zoomScaleNormal="355" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -2083,10 +2087,10 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21"/>
@@ -2095,7 +2099,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O6" s="35"/>
       <c r="P6" s="35"/>
@@ -2106,7 +2110,7 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X6" s="38"/>
       <c r="Y6" s="38"/>
@@ -2131,10 +2135,10 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="21"/>
@@ -2143,10 +2147,10 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P7" s="23"/>
       <c r="Q7" s="23"/>
@@ -2156,7 +2160,7 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X7" s="22" t="s">
         <v>6</v>
@@ -2183,10 +2187,10 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="21"/>
@@ -2195,10 +2199,10 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P8" s="23"/>
       <c r="Q8" s="23"/>
@@ -2208,7 +2212,7 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X8" s="22" t="s">
         <v>7</v>
@@ -2239,10 +2243,10 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
@@ -2252,7 +2256,7 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X9" s="22" t="s">
         <v>8</v>
@@ -2283,10 +2287,10 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P10" s="23"/>
       <c r="Q10" s="23"/>
@@ -2296,10 +2300,10 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X10" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
@@ -2326,9 +2330,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="16"/>
+      <c r="N11" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="O11" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P11" s="23"/>
       <c r="Q11" s="23"/>
@@ -2338,10 +2344,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X11" s="22" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="Y11" s="23"/>
       <c r="Z11" s="23"/>
@@ -2359,7 +2365,7 @@
       <c r="AL11" s="3"/>
       <c r="BC11" s="12"/>
     </row>
-    <row r="12" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="12" spans="1:55">
       <c r="A12" s="11"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2368,29 +2374,19 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="24"/>
+      <c r="N12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="X12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="3"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="3"/>
@@ -2424,13 +2420,13 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
@@ -2662,7 +2658,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O19" s="32"/>
       <c r="P19" s="32"/>
@@ -2673,7 +2669,7 @@
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="X19" s="29"/>
       <c r="Y19" s="29"/>
@@ -2707,10 +2703,10 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="O20" s="25" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26"/>
@@ -2720,10 +2716,10 @@
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X20" s="25" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="Y20" s="26"/>
       <c r="Z20" s="26"/>
@@ -2756,10 +2752,10 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O21" s="25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
@@ -2769,10 +2765,10 @@
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="17" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="X21" s="25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y21" s="26"/>
       <c r="Z21" s="26"/>
@@ -2805,10 +2801,10 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O22" s="25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
@@ -2817,13 +2813,15 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="27"/>
+      <c r="W22" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="X22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="24"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -2852,10 +2850,10 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O23" s="25" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="P23" s="26"/>
       <c r="Q23" s="26"/>
@@ -2864,9 +2862,11 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
-      <c r="W23" s="17"/>
+      <c r="W23" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="X23" s="25" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Y23" s="26"/>
       <c r="Z23" s="26"/>
@@ -2898,9 +2898,11 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="16"/>
+      <c r="N24" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="O24" s="25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
@@ -2909,13 +2911,6 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="24"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
@@ -3880,7 +3875,8 @@
       <c r="BC54" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="37">
+    <mergeCell ref="O23:R23"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="R1:AA2"/>
@@ -3892,14 +3888,12 @@
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AF1:AO1"/>
-    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O20:R20"/>
     <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="X12:AA12"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="O7:R7"/>
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O10:R10"/>
     <mergeCell ref="W6:AA6"/>
     <mergeCell ref="X7:AA7"/>
     <mergeCell ref="X8:AA8"/>
@@ -3908,17 +3902,15 @@
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="O10:R10"/>
     <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O12:R12"/>
     <mergeCell ref="O24:R24"/>
     <mergeCell ref="W19:AA19"/>
     <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="X23:AA23"/>
     <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="X23:AA23"/>
     <mergeCell ref="N19:R19"/>
-    <mergeCell ref="O20:R20"/>
     <mergeCell ref="O21:R21"/>
     <mergeCell ref="O22:R22"/>
   </mergeCells>

--- a/ER図.xlsx
+++ b/ER図.xlsx
@@ -663,6 +663,114 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,24 +779,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,96 +796,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -826,106 +826,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>68094</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>68094</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線コネクタ 29"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3268494" y="2882630"/>
-          <a:ext cx="363166" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>178340</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>64852</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線コネクタ 32"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3653060" y="2474595"/>
-          <a:ext cx="4540" cy="394417"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>178486</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>61609</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109663</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -934,8 +844,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3659505" y="2474595"/>
-          <a:ext cx="363855" cy="2554"/>
+          <a:off x="3329459" y="2388798"/>
+          <a:ext cx="748271" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -963,13 +873,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>2721</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>179614</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -979,7 +889,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3789454" y="2842646"/>
+          <a:off x="3895099" y="2834576"/>
           <a:ext cx="176893" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1008,14 +918,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>5443</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>61783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>5443</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>67339</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>77492</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1023,9 +933,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3875694" y="856187"/>
-          <a:ext cx="0" cy="2021692"/>
+        <a:xfrm>
+          <a:off x="3802528" y="2799817"/>
+          <a:ext cx="0" cy="540929"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1053,13 +963,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>2721</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>73479</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>73479</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1069,7 +979,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3843201" y="843099"/>
+          <a:off x="3824094" y="3633270"/>
           <a:ext cx="178254" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1096,10 +1006,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>162278</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>14112</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>12774</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60036</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="236668" cy="217560"/>
     <xdr:sp macro="" textlink="">
@@ -1109,7 +1019,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3831167" y="642056"/>
+          <a:off x="3860249" y="3174659"/>
           <a:ext cx="236668" cy="217560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1149,9 +1059,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>24507</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66837</xdr:rowOff>
+      <xdr:colOff>18820</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38405</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="236668" cy="217560"/>
     <xdr:sp macro="" textlink="">
@@ -1161,7 +1071,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3811240" y="2841448"/>
+          <a:off x="3840193" y="2705405"/>
           <a:ext cx="236668" cy="217560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1201,9 +1111,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>7055</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7055</xdr:rowOff>
+      <xdr:colOff>6238</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76558</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="236668" cy="217560"/>
     <xdr:sp macro="" textlink="">
@@ -1213,7 +1123,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3859388" y="2250722"/>
+          <a:off x="3803323" y="2155914"/>
           <a:ext cx="236668" cy="217560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1254,9 +1164,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>112889</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14111</xdr:rowOff>
+      <xdr:colOff>90550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>74965</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="287258" cy="264047"/>
     <xdr:sp macro="" textlink="">
@@ -1266,7 +1176,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3231445" y="2638778"/>
+          <a:off x="3164381" y="2154321"/>
           <a:ext cx="287258" cy="264047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1308,14 +1218,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>114116</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>72980</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>78666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>182451</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>73623</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>481</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>79309</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1324,8 +1234,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2138754" y="2605618"/>
-          <a:ext cx="252393" cy="643"/>
+          <a:off x="2115788" y="1915427"/>
+          <a:ext cx="250305" cy="643"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1359,8 +1269,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1369,13 +1279,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2125980" y="830580"/>
-          <a:ext cx="0" cy="1786890"/>
+          <a:off x="2115972" y="834333"/>
+          <a:ext cx="0" cy="1087727"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln/>
+        <a:ln w="9525"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1495,9 +1405,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>170986</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>33454</xdr:rowOff>
+      <xdr:colOff>159613</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22079</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="287258" cy="264047"/>
     <xdr:sp macro="" textlink="">
@@ -1507,7 +1417,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2174488" y="2460703"/>
+          <a:off x="2161285" y="1722363"/>
           <a:ext cx="287258" cy="264047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1847,7 +1757,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="134" zoomScaleNormal="355" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="165" zoomScaleNormal="355" workbookViewId="0">
       <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
@@ -1857,130 +1767,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="5" customFormat="1" ht="10.199999999999999" thickTop="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="58" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="51" t="s">
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="51" t="s">
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="41"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="40"/>
     </row>
     <row r="2" spans="1:55" s="5" customFormat="1" ht="10.199999999999999" thickBot="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="42" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="42" t="s">
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="44"/>
-      <c r="AZ2" s="44"/>
-      <c r="BA2" s="44"/>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="45"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="44"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:55">
@@ -2089,33 +1999,26 @@
       <c r="E6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="34" t="s">
+      <c r="N6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="36"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="51"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="39"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
@@ -2137,11 +2040,11 @@
       <c r="E7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2149,25 +2052,16 @@
       <c r="N7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="O7" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="24"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="48"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="X7" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="24"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
@@ -2189,11 +2083,11 @@
       <c r="E8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -2201,25 +2095,16 @@
       <c r="N8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="24"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="48"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="X8" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="24"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
@@ -2245,25 +2130,16 @@
       <c r="N9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="O9" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="24"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="48"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="X9" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="24"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
@@ -2289,25 +2165,16 @@
       <c r="N10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="24"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="48"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="X10" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="24"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="4"/>
@@ -2333,25 +2200,16 @@
       <c r="N11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="22" t="s">
+      <c r="O11" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="48"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="X11" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="24"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="4"/>
@@ -2397,7 +2255,7 @@
       <c r="AL12" s="3"/>
       <c r="BC12" s="12"/>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:55" ht="12" customHeight="1" thickBot="1">
       <c r="A13" s="11"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2438,7 +2296,7 @@
       <c r="AL13" s="3"/>
       <c r="BC13" s="12"/>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:55" ht="10.8" customHeight="1" thickBot="1">
       <c r="A14" s="11"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2452,11 +2310,13 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="N14" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="63"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -2479,7 +2339,7 @@
       <c r="AL14" s="3"/>
       <c r="BC14" s="12"/>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:55" ht="10.199999999999999" thickBot="1">
       <c r="A15" s="11"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2493,11 +2353,15 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="N15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="21"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -2520,7 +2384,7 @@
       <c r="AL15" s="3"/>
       <c r="BC15" s="12"/>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:55" ht="10.199999999999999" thickBot="1">
       <c r="A16" s="11"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2534,11 +2398,15 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="N16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="21"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
@@ -2561,7 +2429,7 @@
       <c r="AL16" s="3"/>
       <c r="BC16" s="12"/>
     </row>
-    <row r="17" spans="1:55">
+    <row r="17" spans="1:55" ht="10.199999999999999" thickBot="1">
       <c r="A17" s="11"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2575,20 +2443,26 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="N17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="21"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
+      <c r="W17" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="60"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
@@ -2602,7 +2476,7 @@
       <c r="AL17" s="3"/>
       <c r="BC17" s="12"/>
     </row>
-    <row r="18" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="18" spans="1:55" ht="10.199999999999999" customHeight="1" thickBot="1">
       <c r="A18" s="11"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2616,20 +2490,28 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="N18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="21"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
+      <c r="W18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="21"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
@@ -2643,7 +2525,7 @@
       <c r="AL18" s="3"/>
       <c r="BC18" s="12"/>
     </row>
-    <row r="19" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="19" spans="1:55" ht="10.8" customHeight="1" thickBot="1">
       <c r="A19" s="11"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2657,24 +2539,28 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="33"/>
+      <c r="N19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="21"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="30"/>
+      <c r="W19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="X19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="21"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
@@ -2702,28 +2588,19 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="O20" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="27"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="X20" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="27"/>
+      <c r="W20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="X20" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="48"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2751,28 +2628,19 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="27"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="X21" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="27"/>
+        <v>21</v>
+      </c>
+      <c r="X21" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="21"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2786,7 +2654,7 @@
       <c r="AL21" s="3"/>
       <c r="BC21" s="12"/>
     </row>
-    <row r="22" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="22" spans="1:55">
       <c r="A22" s="11"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2800,28 +2668,10 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="27"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="X22" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="24"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -2849,28 +2699,10 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="27"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
-      <c r="W23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="X23" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="27"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -2884,7 +2716,7 @@
       <c r="AL23" s="3"/>
       <c r="BC23" s="12"/>
     </row>
-    <row r="24" spans="1:55" ht="10.199999999999999" thickBot="1">
+    <row r="24" spans="1:55" ht="11.4" customHeight="1" thickBot="1">
       <c r="A24" s="11"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2898,19 +2730,17 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="27"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
+      <c r="W24" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="54"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
@@ -2924,7 +2754,7 @@
       <c r="AL24" s="3"/>
       <c r="BC24" s="12"/>
     </row>
-    <row r="25" spans="1:55">
+    <row r="25" spans="1:55" ht="11.4" customHeight="1" thickBot="1">
       <c r="A25" s="11"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2947,11 +2777,15 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
+      <c r="W25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="X25" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="48"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
@@ -2965,7 +2799,7 @@
       <c r="AL25" s="3"/>
       <c r="BC25" s="12"/>
     </row>
-    <row r="26" spans="1:55">
+    <row r="26" spans="1:55" ht="10.199999999999999" thickBot="1">
       <c r="A26" s="11"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2988,11 +2822,15 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
+      <c r="W26" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="X26" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="48"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
@@ -3006,7 +2844,7 @@
       <c r="AL26" s="3"/>
       <c r="BC26" s="12"/>
     </row>
-    <row r="27" spans="1:55">
+    <row r="27" spans="1:55" ht="10.199999999999999" thickBot="1">
       <c r="A27" s="11"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3029,11 +2867,15 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
+      <c r="W27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="X27" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="48"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
@@ -3047,7 +2889,7 @@
       <c r="AL27" s="3"/>
       <c r="BC27" s="12"/>
     </row>
-    <row r="28" spans="1:55">
+    <row r="28" spans="1:55" ht="10.199999999999999" thickBot="1">
       <c r="A28" s="11"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3070,11 +2912,15 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
+      <c r="W28" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="X28" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="48"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
@@ -3088,7 +2934,7 @@
       <c r="AL28" s="3"/>
       <c r="BC28" s="12"/>
     </row>
-    <row r="29" spans="1:55">
+    <row r="29" spans="1:55" ht="10.199999999999999" thickBot="1">
       <c r="A29" s="11"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3111,11 +2957,15 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
+      <c r="W29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="X29" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="48"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
@@ -3152,11 +3002,6 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
@@ -3193,11 +3038,6 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
@@ -3234,11 +3074,6 @@
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
@@ -3275,11 +3110,6 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3876,11 +3706,22 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="R1:AA2"/>
-    <mergeCell ref="N1:Q2"/>
+    <mergeCell ref="W24:AA24"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="W17:AA17"/>
+    <mergeCell ref="X18:AA18"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="N14:R14"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AB2:AE2"/>
@@ -3888,31 +3729,20 @@
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AF1:AO1"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="R1:AA2"/>
+    <mergeCell ref="N1:Q2"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="X29:AA29"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="O7:R7"/>
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="O9:R9"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="W19:AA19"/>
-    <mergeCell ref="X20:AA20"/>
-    <mergeCell ref="X23:AA23"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="X27:AA27"/>
+    <mergeCell ref="X28:AA28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions gridLinesSet="0"/>

--- a/ER図.xlsx
+++ b/ER図.xlsx
@@ -1164,11 +1164,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>90550</xdr:colOff>
+      <xdr:colOff>122877</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>74965</xdr:rowOff>
+      <xdr:rowOff>70347</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="287258" cy="264047"/>
+    <xdr:ext cx="236668" cy="217560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="53" name="テキスト ボックス 52"/>
@@ -1176,8 +1176,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3164381" y="2154321"/>
-          <a:ext cx="287258" cy="264047"/>
+          <a:off x="3263241" y="2153147"/>
+          <a:ext cx="236668" cy="217560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1205,10 +1205,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>＊</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>1</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1218,14 +1217,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>114116</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>78666</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>481</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>79309</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60836</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1234,8 +1233,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2115788" y="1915427"/>
-          <a:ext cx="250305" cy="643"/>
+          <a:off x="2146116" y="2013684"/>
+          <a:ext cx="255820" cy="643"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1264,13 +1263,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>60961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85299</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>64654</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1279,8 +1278,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2115972" y="834333"/>
-          <a:ext cx="0" cy="1087727"/>
+          <a:off x="2146300" y="827579"/>
+          <a:ext cx="0" cy="1190566"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1407,7 +1406,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>159613</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>22079</xdr:rowOff>
+      <xdr:rowOff>132916</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="287258" cy="264047"/>
     <xdr:sp macro="" textlink="">
@@ -1417,7 +1416,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2161285" y="1722363"/>
+          <a:off x="2191613" y="1818552"/>
           <a:ext cx="287258" cy="264047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1757,8 +1756,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="165" zoomScaleNormal="355" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="165" zoomScaleNormal="355" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
